--- a/DataRepo/data/tests/accucor_with_multiple_labels/accucor_invalid_label.xlsx
+++ b/DataRepo/data/tests/accucor_with_multiple_labels/accucor_invalid_label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/testing_data/accucor_with_multiple_labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/accucor_with_multiple_labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F376C02B-38EA-3D41-A886-EF80F5371D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388874D-C15E-5546-B43C-4FE04DEAF44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16760" yWindow="10660" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>label</t>
   </si>
@@ -201,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,9 +241,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,26 +276,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +311,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1095,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1109,22 +1075,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1132,22 +1095,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.0402275689662961</v>
+        <v>85750.89959084439</v>
       </c>
       <c r="D2">
-        <v>85750.89959084439</v>
+        <v>113767.0574420943</v>
       </c>
       <c r="E2">
-        <v>113767.0574420943</v>
+        <v>84190.488562416678</v>
       </c>
       <c r="F2">
-        <v>84190.488562416678</v>
-      </c>
-      <c r="G2">
         <v>79775.721893427981</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1166,11 +1126,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1189,11 +1146,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1207,16 +1161,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>19425.606829438329</v>
       </c>
       <c r="F5">
-        <v>19425.606829438329</v>
-      </c>
-      <c r="G5">
         <v>27219.670232964221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1224,22 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.0789810849249819</v>
+        <v>5591786.8355261376</v>
       </c>
       <c r="D6">
-        <v>5591786.8355261376</v>
+        <v>4910135.5859680166</v>
       </c>
       <c r="E6">
-        <v>4910135.5859680166</v>
+        <v>4380090.4658212066</v>
       </c>
       <c r="F6">
-        <v>4380090.4658212066</v>
-      </c>
-      <c r="G6">
         <v>4692672.7282388248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1247,22 +1195,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>195595.3956708484</v>
       </c>
       <c r="D7">
-        <v>195595.3956708484</v>
+        <v>229303.59604486561</v>
       </c>
       <c r="E7">
-        <v>229303.59604486561</v>
+        <v>138481.27457236411</v>
       </c>
       <c r="F7">
-        <v>138481.27457236411</v>
-      </c>
-      <c r="G7">
         <v>122669.1299826532</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1270,22 +1215,19 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>112278.4380717509</v>
       </c>
       <c r="D8">
-        <v>112278.4380717509</v>
+        <v>154169.69247568949</v>
       </c>
       <c r="E8">
-        <v>154169.69247568949</v>
+        <v>83200.539628753497</v>
       </c>
       <c r="F8">
-        <v>83200.539628753497</v>
-      </c>
-      <c r="G8">
         <v>82870.740571524482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1293,22 +1235,19 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>137433.18004431319</v>
       </c>
       <c r="D9">
-        <v>137433.18004431319</v>
+        <v>197000.5904698009</v>
       </c>
       <c r="E9">
-        <v>197000.5904698009</v>
+        <v>590367.37452902028</v>
       </c>
       <c r="F9">
-        <v>590367.37452902028</v>
-      </c>
-      <c r="G9">
         <v>551869.74742725445</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1316,22 +1255,19 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>12741.57163112608</v>
       </c>
       <c r="D10">
-        <v>12741.57163112608</v>
+        <v>22989.486835416861</v>
       </c>
       <c r="E10">
-        <v>22989.486835416861</v>
+        <v>5529.4783128642057</v>
       </c>
       <c r="F10">
-        <v>5529.4783128642057</v>
-      </c>
-      <c r="G10">
         <v>9390.2832529520238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1339,22 +1275,19 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2688.0625616373491</v>
       </c>
       <c r="D11">
-        <v>2688.0625616373491</v>
+        <v>12430.02116063707</v>
       </c>
       <c r="E11">
-        <v>12430.02116063707</v>
+        <v>6595.5721957555343</v>
       </c>
       <c r="F11">
-        <v>6595.5721957555343</v>
-      </c>
-      <c r="G11">
         <v>5684.2671061387146</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1362,18 +1295,15 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>800781.82886352425</v>
       </c>
       <c r="D12">
-        <v>800781.82886352425</v>
+        <v>1155697.9116251131</v>
       </c>
       <c r="E12">
-        <v>1155697.9116251131</v>
+        <v>31197.40939018871</v>
       </c>
       <c r="F12">
-        <v>31197.40939018871</v>
-      </c>
-      <c r="G12">
         <v>30828.637761061971</v>
       </c>
     </row>

--- a/DataRepo/data/tests/accucor_with_multiple_labels/accucor_invalid_label.xlsx
+++ b/DataRepo/data/tests/accucor_with_multiple_labels/accucor_invalid_label.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/accucor_with_multiple_labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/accucor_with_multiple_labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388874D-C15E-5546-B43C-4FE04DEAF44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA7494-893F-A347-BC89-F88A4F579D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16760" yWindow="10660" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>label</t>
   </si>
@@ -178,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,33 +1065,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1095,19 +1102,22 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>1.0402279999999999</v>
+      </c>
+      <c r="D2">
         <v>85750.89959084439</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>113767.0574420943</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>84190.488562416678</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>79775.721893427981</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1126,8 +1136,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1146,8 +1159,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1161,13 +1177,16 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19425.606829438329</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>27219.670232964221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1175,19 +1194,22 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>1.078981</v>
+      </c>
+      <c r="D6">
         <v>5591786.8355261376</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4910135.5859680166</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4380090.4658212066</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4692672.7282388248</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1195,19 +1217,22 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>195595.3956708484</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>229303.59604486561</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>138481.27457236411</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>122669.1299826532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1215,19 +1240,22 @@
         <v>2</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>112278.4380717509</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>154169.69247568949</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>83200.539628753497</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>82870.740571524482</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1235,19 +1263,22 @@
         <v>3</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>137433.18004431319</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>197000.5904698009</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>590367.37452902028</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>551869.74742725445</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1255,19 +1286,22 @@
         <v>4</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>12741.57163112608</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>22989.486835416861</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5529.4783128642057</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9390.2832529520238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1275,19 +1309,22 @@
         <v>5</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>2688.0625616373491</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12430.02116063707</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6595.5721957555343</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5684.2671061387146</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1295,15 +1332,18 @@
         <v>6</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>800781.82886352425</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1155697.9116251131</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>31197.40939018871</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>30828.637761061971</v>
       </c>
     </row>
